--- a/Documento de Oponencia Trabajo Final DEW.xlsx
+++ b/Documento de Oponencia Trabajo Final DEW.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Nombre de grupo:</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>3 Enmanuel Gonzales</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -130,13 +133,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -443,7 +446,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -457,10 +460,10 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -486,74 +489,89 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="G5" s="5"/>
+      <c r="A5" s="5"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="G6" s="5"/>
+      <c r="A6" s="5"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="5"/>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="G9" s="5"/>
+      <c r="A9" s="5"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="G11" s="5"/>
+      <c r="A11" s="5"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="5"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="G14" s="5"/>
+      <c r="A14" s="5"/>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="G15" s="5"/>
+      <c r="A15" s="5"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="A17" s="6"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -576,21 +594,21 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="G7:G9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="G16:G18"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="G7:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
